--- a/Composants/Commande RS.xlsx
+++ b/Composants/Commande RS.xlsx
@@ -391,9 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -408,9 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,9 +419,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +427,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +743,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -859,15 +859,15 @@
       <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -879,108 +879,108 @@
       <c r="K10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <v>2</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="21">
         <f>H11*I11</f>
         <v>17.920000000000002</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <f>0.2*J11</f>
         <v>3.5840000000000005</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="22">
         <f>K11+J11</f>
         <v>21.504000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21">
         <f t="shared" ref="J12:J13" si="0">H12*I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <f t="shared" ref="K12:K13" si="1">0.2*J12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <f>K12+J12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <f t="shared" ref="L13" si="2">K13+J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="23">
         <f>SUM(J11:J13)</f>
         <v>17.920000000000002</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="24">
         <f>J14*0.2</f>
         <v>3.5840000000000005</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="25">
         <f>J14+K14</f>
         <v>21.504000000000001</v>
       </c>
@@ -989,16 +989,16 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <f ca="1">TODAY()</f>
-        <v>42036</v>
-      </c>
-      <c r="C16" s="29"/>
+        <v>42037</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
